--- a/target/Excelfile.xlsx
+++ b/target/Excelfile.xlsx
@@ -106,31 +106,31 @@
     <t>Tata Tiago</t>
   </si>
   <si>
-    <t>Rs. 3.65 Lakh - 7.67 Lakh</t>
+    <t>Rs. 4.09 Lakh - 7.67 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai GRAND I10 NIOS</t>
+  </si>
+  <si>
+    <t>Rs. 6.06 Lakh - 7.84 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai NEW SANTRO</t>
+  </si>
+  <si>
+    <t>Rs. 4.72 Lakh - 5.77 Lakh</t>
   </si>
   <si>
     <t>Ford Ecosport</t>
   </si>
   <si>
-    <t>Rs. 5.33 Lakh - 8.99 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift</t>
-  </si>
-  <si>
-    <t>Rs. 4.22 Lakh - 7.55 Lakh</t>
-  </si>
-  <si>
-    <t>KIA SELTOS</t>
-  </si>
-  <si>
-    <t>Rs. 9.68 Lakh - 16.28 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Creta</t>
-  </si>
-  <si>
-    <t>Rs. 7.03 Lakh - 17.87 Lakh</t>
+    <t>Rs. 5.28 Lakh - 8.99 Lakh</t>
+  </si>
+  <si>
+    <t>Renault Kwid</t>
+  </si>
+  <si>
+    <t>Rs. 3.07 Lakh - 5.51 Lakh</t>
   </si>
   <si>
     <t>Couldn’t find your Google Account</t>
